--- a/Spatial/PDFs/figure1_zMIs_AD_15_dataT.xlsx
+++ b/Spatial/PDFs/figure1_zMIs_AD_15_dataT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\samsoon.inayat\S_Drive\GitHub\Toolbox_2P\Spatial\PDFs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E297202-D2EC-4151-B919-99F4D35A5D11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87863F35-757B-4137-8850-E0481F20FAD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{31A7F980-AC19-4301-AC99-4BC3861E3EE1}"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="19185" windowHeight="10200" xr2:uid="{31A7F980-AC19-4301-AC99-4BC3861E3EE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
